--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C256AD8-591F-4793-BEA6-ED04BBD826E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7DEB4-0733-4E3C-A93A-85B0A6E71188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>Entry Date</t>
   </si>
@@ -62,6 +62,24 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Rangeen Pop</t>
+  </si>
+  <si>
+    <t>Outer</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Jalebi Jelly</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
 </sst>
 </file>
@@ -430,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -506,6 +524,236 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.64778935185185182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>500</v>
+      </c>
+      <c r="G3">
+        <v>456</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.6731018518518519</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>456</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.68487268518518518</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.76513888888888892</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6">
+        <v>456</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.76613425925925926</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>900</v>
+      </c>
+      <c r="H7">
+        <v>654</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.77379629629629632</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+      <c r="G8">
+        <v>1250</v>
+      </c>
+      <c r="H8">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.77614583333333331</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>1250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C7DEB4-0733-4E3C-A93A-85B0A6E71188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877646DD-307F-4A3D-A7E4-FDB3D9A2A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
   <si>
     <t>Entry Date</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>sc</t>
+  </si>
+  <si>
+    <t>Rangeen Pop Small</t>
   </si>
 </sst>
 </file>
@@ -138,12 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,6 +758,157 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.49918981481481484</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>1250</v>
+      </c>
+      <c r="H10">
+        <v>2345678</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>45667</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.7852662037037037</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>1250</v>
+      </c>
+      <c r="H11">
+        <v>98</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>45698</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.18748842592592593</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>2050</v>
+      </c>
+      <c r="H12">
+        <v>789</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45698</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.18829861111111112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>2450</v>
+      </c>
+      <c r="H13">
+        <v>897</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45698</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.22232638888888889</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>2100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877646DD-307F-4A3D-A7E4-FDB3D9A2A6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D857FDF-A604-422C-8E63-0FB16BC7535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Entry Date</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Rangeen Pop Small</t>
+  </si>
+  <si>
+    <t>Melon Pop</t>
+  </si>
+  <si>
+    <t>Rangeen Pop Big</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -909,6 +915,166 @@
         <v>2100</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.72157407407407403</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>2550</v>
+      </c>
+      <c r="H15">
+        <v>45612378</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.72613425925925923</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>900</v>
+      </c>
+      <c r="H16">
+        <v>123465978</v>
+      </c>
+      <c r="I16">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.73075231481481484</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>1200</v>
+      </c>
+      <c r="H17">
+        <v>13456</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.73098379629629628</v>
+      </c>
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>1800</v>
+      </c>
+      <c r="H18">
+        <v>123645</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>45848</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.73140046296296302</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>3500</v>
+      </c>
+      <c r="H19">
+        <v>564</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D857FDF-A604-422C-8E63-0FB16BC7535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126193F9-84ED-4BE6-B3AF-D29CA1756EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Entry Date</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Rangeen Pop Big</t>
+  </si>
+  <si>
+    <t>Test007</t>
   </si>
 </sst>
 </file>
@@ -458,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,6 +1078,38 @@
         <v>13</v>
       </c>
     </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45879</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.83199074074074075</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>1250</v>
+      </c>
+      <c r="H20">
+        <v>12546</v>
+      </c>
+      <c r="I20">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126193F9-84ED-4BE6-B3AF-D29CA1756EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19440306-061D-43D9-8C70-7D72310C0890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
   <si>
     <t>Entry Date</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>Test007</t>
+  </si>
+  <si>
+    <t>21-10-2025</t>
+  </si>
+  <si>
+    <t>Testttt</t>
+  </si>
+  <si>
+    <t>29-11-2025</t>
+  </si>
+  <si>
+    <t>29-12-2025</t>
+  </si>
+  <si>
+    <t>Chakh It Specials</t>
+  </si>
+  <si>
+    <t>addtest</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,6 +1128,575 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45971</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.76379629629629631</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0.63545138888888886</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <v>260</v>
+      </c>
+      <c r="H22">
+        <v>4456132</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B23" s="2">
+        <v>0.55236111111111108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>2500</v>
+      </c>
+      <c r="H23">
+        <v>1234567890</v>
+      </c>
+      <c r="I23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>0.55325231481481485</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <v>4680</v>
+      </c>
+      <c r="H24">
+        <v>98765421</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0.55348379629629629</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>70</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25">
+        <v>4200</v>
+      </c>
+      <c r="H25">
+        <v>34355565656</v>
+      </c>
+      <c r="I25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B26" s="2">
+        <v>0.55377314814814815</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>84</v>
+      </c>
+      <c r="F26">
+        <v>60</v>
+      </c>
+      <c r="G26">
+        <v>5040</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.55413194444444447</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>4500</v>
+      </c>
+      <c r="H27">
+        <v>1234567890</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>46002</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.55509259259259258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>600</v>
+      </c>
+      <c r="H28">
+        <v>1234</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.50012731481481476</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29">
+        <v>500</v>
+      </c>
+      <c r="H29">
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.58804398148148151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.55614583333333334</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>52</v>
+      </c>
+      <c r="G31">
+        <v>520</v>
+      </c>
+      <c r="H31">
+        <v>123459</v>
+      </c>
+      <c r="I31">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.56171296296296291</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>456</v>
+      </c>
+      <c r="H32">
+        <v>123456789</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.64186342592592593</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33">
+        <v>10</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>120</v>
+      </c>
+      <c r="H33">
+        <v>123456789</v>
+      </c>
+      <c r="I33">
+        <v>9</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>46174</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.68319444444444444</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>52</v>
+      </c>
+      <c r="G34">
+        <v>520</v>
+      </c>
+      <c r="H34">
+        <v>1234567890</v>
+      </c>
+      <c r="I34">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>46174</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.71565972222222218</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>60</v>
+      </c>
+      <c r="G35">
+        <v>600</v>
+      </c>
+      <c r="H35">
+        <v>1234567890</v>
+      </c>
+      <c r="I35">
+        <v>9</v>
+      </c>
+      <c r="J35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>46174</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.7283680555555555</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>60</v>
+      </c>
+      <c r="G36">
+        <v>600</v>
+      </c>
+      <c r="H36">
+        <v>1234567890</v>
+      </c>
+      <c r="I36">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>46235</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.73635416666666664</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <v>350</v>
+      </c>
+      <c r="F37">
+        <v>60</v>
+      </c>
+      <c r="G37">
+        <v>21000</v>
+      </c>
+      <c r="H37">
+        <v>1234567</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>50</v>
+      </c>
+      <c r="G38">
+        <v>500</v>
+      </c>
+      <c r="H38">
+        <v>123456</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.45177083333333334</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
+      <c r="G39">
+        <v>100</v>
+      </c>
+      <c r="H39">
+        <v>1345</v>
+      </c>
+      <c r="I39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AppFolder/StockIn.xlsx
+++ b/AppFolder/StockIn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CHAKH IT Management Software\WindowsApp1\AppFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19440306-061D-43D9-8C70-7D72310C0890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6892EA-E785-4EDD-8E60-F9B7B6621F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="35">
   <si>
     <t>Entry Date</t>
   </si>
@@ -110,6 +110,21 @@
   </si>
   <si>
     <t>addtest</t>
+  </si>
+  <si>
+    <t>addtesting</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>zee</t>
+  </si>
+  <si>
+    <t>zyx</t>
+  </si>
+  <si>
+    <t>14-01-2026</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1697,6 +1712,256 @@
         <v>17</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.46050925925925928</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>2500</v>
+      </c>
+      <c r="H40">
+        <v>2345</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.46944444444444444</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41">
+        <v>15</v>
+      </c>
+      <c r="F41">
+        <v>50</v>
+      </c>
+      <c r="G41">
+        <v>750</v>
+      </c>
+      <c r="H41">
+        <v>222222</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.47008101851851852</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>1000</v>
+      </c>
+      <c r="H42">
+        <v>23432</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.47084490740740742</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>50</v>
+      </c>
+      <c r="G43">
+        <v>1000</v>
+      </c>
+      <c r="H43">
+        <v>222</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>50</v>
+      </c>
+      <c r="G44">
+        <v>2250</v>
+      </c>
+      <c r="H44">
+        <v>234</v>
+      </c>
+      <c r="I44">
+        <v>5</v>
+      </c>
+      <c r="J44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.48101851851851851</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>60</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45">
+        <v>3000</v>
+      </c>
+      <c r="H45">
+        <v>12345</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>46266</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.48909722222222224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>40</v>
+      </c>
+      <c r="G46">
+        <v>240</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.56611111111111112</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>40</v>
+      </c>
+      <c r="G47">
+        <v>400</v>
+      </c>
+      <c r="H47">
+        <v>23456789</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
